--- a/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF40D89-93A4-4705-BFD6-C257AE17FF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ABD618-C87E-4448-AD57-EBB94390F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="519">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1583,12 +1583,57 @@
   <si>
     <t>Logistics Weight Statement</t>
   </si>
+  <si>
+    <t>PL Dokument pomocniczy ver. 1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:UtilityStatement-2::UtilityStatement##urn:fdc:www.efaktura.gov.pl:ver2.0:trns:us:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:www.efaktura.gov.pl:ver2.0:us:ver1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderChange-2::OrderChange##urn:fdc:peppol.eu:poacc:trns:order_change:3::2.3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderCancellation-2::OrderCancellation##urn:fdc:peppol.eu:poacc:trns:order_cancellation:3::2.3</t>
+  </si>
+  <si>
+    <t>Order Change</t>
+  </si>
+  <si>
+    <t>Order Cancellation</t>
+  </si>
+  <si>
+    <t>Order Response Advanced</t>
+  </si>
+  <si>
+    <t>TICC-219</t>
+  </si>
+  <si>
+    <t>TICC-216</t>
+  </si>
+  <si>
+    <t>Order Advanced</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3::2.3</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response_advanced:3::2.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +1689,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1671,10 +1723,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1747,10 +1800,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Standard 3" xfId="2" xr:uid="{8757061E-72AB-4191-9614-3313A86B1B18}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{D65691AB-2DBB-4DDB-972E-9107E6244D71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2155,11 +2209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182:A184"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7817,6 +7871,163 @@
         <v>499</v>
       </c>
     </row>
+    <row r="185" spans="1:12" ht="30">
+      <c r="A185" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="30">
+      <c r="A186" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" s="5">
+        <v>3</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="30">
+      <c r="A187" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I187" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" s="5">
+        <v>3</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="30">
+      <c r="A188" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I188" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" s="5">
+        <v>3</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I189" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" s="5">
+        <v>3</v>
+      </c>
+      <c r="K189" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L189" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ABD618-C87E-4448-AD57-EBB94390F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E70D93-98C7-47FC-826F-E34879F4A8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$188</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="517">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -252,9 +252,6 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.peppol.eu:transaction:biitrns111:ver1.0::2.1</t>
   </si>
   <si>
-    <t>PEPPOL Invoice Response V1</t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Catalogue-2::Catalogue##urn:fdc:peppol.eu:poacc:trns:catalogue:3::2.1</t>
   </si>
   <si>
@@ -282,33 +279,6 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:poacc:trns:mlr:3::2.1</t>
   </si>
   <si>
-    <t>PEPPOL Catalogue transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Catalogue Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Order transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Invoice Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Punch Out transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Order Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Despatch Advice transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Order Agreement transaction 3.0</t>
-  </si>
-  <si>
-    <t>PEPPOL Message Level Response transaction 3.0</t>
-  </si>
-  <si>
     <t>SI-UBL 2.0 Invoice</t>
   </si>
   <si>
@@ -321,12 +291,6 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0::2.1</t>
   </si>
   <si>
-    <t>SG PEPPOL BIS Billing 3.0 Invoice</t>
-  </si>
-  <si>
-    <t>SG PEPPOL BIS Billing 3.0 Credit Note</t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::CreditNote##urn:cen.eu:en16931:2017#conformant#urn:fdc:peppol.eu:2017:poacc:billing:international:sg:3.0::2.1</t>
   </si>
   <si>
@@ -351,39 +315,12 @@
     <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_1.2::D16B</t>
   </si>
   <si>
-    <t>PEPPOL BIS Billing UBL Invoice V3</t>
-  </si>
-  <si>
-    <t>PEPPOL BIS Billing UBL CreditNote V3</t>
-  </si>
-  <si>
-    <t>PEPPOL BIS Billing CII Invoice V3</t>
-  </si>
-  <si>
     <t>PEPPOL Billing profile Invoice V2</t>
   </si>
   <si>
     <t>PEPPOL Billing profile CreditNote V2</t>
   </si>
   <si>
-    <t>Tender Submission TenderReceipt V1</t>
-  </si>
-  <si>
-    <t>Tender Submission Tender V1</t>
-  </si>
-  <si>
-    <t>Procurement document access CallForTenders V1</t>
-  </si>
-  <si>
-    <t>Procurement document access TenderStatusRequest V1</t>
-  </si>
-  <si>
-    <t>Procurement procedure subscription Response V1</t>
-  </si>
-  <si>
-    <t>Procurement procedure subscription Request V1</t>
-  </si>
-  <si>
     <t>DHSC Customized Ordering profile Order V1</t>
   </si>
   <si>
@@ -460,12 +397,6 @@
   </si>
   <si>
     <t>AU-NZ Self-Billing 3.0 Invoice</t>
-  </si>
-  <si>
-    <t>AU-NZ PEPPOL BIS Billing 3.0 CreditNote</t>
-  </si>
-  <si>
-    <t>AU-NZ PEPPOL BIS Billing 3.0 Invoice</t>
   </si>
   <si>
     <t>AU-NZ Self-Billing 3.0 CreditNote</t>
@@ -512,10 +443,6 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:catalogue_only:3</t>
-  </si>
-  <si>
-    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:ordering:3
-cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3</t>
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:invoice_response:3</t>
@@ -1044,18 +971,6 @@
     <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:11:1.0</t>
   </si>
   <si>
-    <t>Tendering Questions V1.0</t>
-  </si>
-  <si>
-    <t>Tendering Answers V1.0</t>
-  </si>
-  <si>
-    <t>Tender Clarification Request V1.0</t>
-  </si>
-  <si>
-    <t>Tender Clarification Response V1.0</t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t007:1.0::2.2 </t>
   </si>
   <si>
@@ -1538,12 +1453,6 @@
     <t>TICC-213</t>
   </si>
   <si>
-    <t>OpenPeppol End User Report</t>
-  </si>
-  <si>
-    <t>OpenPeppol Transaction Statistics Report</t>
-  </si>
-  <si>
     <t>urn:fdc:peppol:transaction-statistics-reporting:1.0::TransactionStatisticsReport##urn:fdc:peppol.eu:oo:trns:transaction-statistics-reporting:1::1.0</t>
   </si>
   <si>
@@ -1602,31 +1511,117 @@
     <t>urn:oasis:names:specification:ubl:schema:xsd:OrderCancellation-2::OrderCancellation##urn:fdc:peppol.eu:poacc:trns:order_cancellation:3::2.3</t>
   </si>
   <si>
-    <t>Order Change</t>
-  </si>
-  <si>
-    <t>Order Cancellation</t>
-  </si>
-  <si>
-    <t>Order Response Advanced</t>
-  </si>
-  <si>
     <t>TICC-219</t>
   </si>
   <si>
     <t>TICC-216</t>
   </si>
   <si>
-    <t>Order Advanced</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3::2.3</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response_advanced:3::2.3</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:ordering:3
+cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3
+cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
+  </si>
+  <si>
+    <t>Peppol Invoice Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Catalogue transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Catalogue Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Invoice Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Punch Out transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Despatch Advice transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order Agreement transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Message Level Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing UBL Invoice V3</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing UBL CreditNote V3</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing CII Invoice V3</t>
+  </si>
+  <si>
+    <t>SG Peppol BIS Billing 3.0 Invoice</t>
+  </si>
+  <si>
+    <t>SG Peppol BIS Billing 3.0 Credit Note</t>
+  </si>
+  <si>
+    <t>AU-NZ Peppol BIS Billing 3.0 Invoice</t>
+  </si>
+  <si>
+    <t>AU-NZ Peppol BIS Billing 3.0 CreditNote</t>
+  </si>
+  <si>
+    <t>Peppol Order Change</t>
+  </si>
+  <si>
+    <t>Peppol Order Cancellation</t>
+  </si>
+  <si>
+    <t>Peppol Order Response Advanced</t>
+  </si>
+  <si>
+    <t>Peppol Tendering Questions V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tendering Answers V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tender Clarification Request V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tender Clarification Response V1.0</t>
+  </si>
+  <si>
+    <t>Peppol End User Report</t>
+  </si>
+  <si>
+    <t>Peppol Transaction Statistics Report</t>
+  </si>
+  <si>
+    <t>Peppol Tender Submission Tender V1</t>
+  </si>
+  <si>
+    <t>Peppol Tender Submission TenderReceipt V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement document access CallForTenders V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement document access TenderStatusRequest V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement procedure subscription Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement procedure subscription Request V1</t>
   </si>
 </sst>
 </file>
@@ -2209,11 +2204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2235,40 +2230,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="45">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45">
@@ -2285,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -2298,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
@@ -2318,7 +2313,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -2331,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
@@ -2351,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -2364,15 +2359,15 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>56</v>
@@ -2384,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2397,15 +2392,15 @@
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>56</v>
@@ -2417,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -2430,15 +2425,15 @@
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>56</v>
@@ -2450,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2463,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45">
@@ -2483,7 +2478,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2496,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -2516,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2529,15 +2524,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="4" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2549,13 +2544,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="I10" s="5" t="b">
         <f>TRUE</f>
@@ -2565,10 +2560,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -2585,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F11" s="6">
         <v>7</v>
@@ -2598,10 +2593,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
@@ -2618,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
@@ -2631,10 +2626,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45">
@@ -2651,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
@@ -2664,15 +2659,15 @@
         <v>2</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>56</v>
@@ -2684,7 +2679,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2697,15 +2692,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
       <c r="A15" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>56</v>
@@ -2717,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -2730,15 +2725,15 @@
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>56</v>
@@ -2750,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -2763,15 +2758,15 @@
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>56</v>
@@ -2783,7 +2778,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F17" s="6">
         <v>7</v>
@@ -2796,15 +2791,15 @@
         <v>2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45">
       <c r="A18" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>56</v>
@@ -2816,7 +2811,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
@@ -2829,15 +2824,15 @@
         <v>2</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>56</v>
@@ -2849,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -2862,15 +2857,15 @@
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="45">
       <c r="A20" s="5" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>56</v>
@@ -2882,7 +2877,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -2895,15 +2890,15 @@
         <v>1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45">
       <c r="A21" s="5" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>56</v>
@@ -2915,7 +2910,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
@@ -2928,15 +2923,15 @@
         <v>1</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>56</v>
@@ -2948,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
@@ -2961,15 +2956,15 @@
         <v>1</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>56</v>
@@ -2981,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -2994,15 +2989,15 @@
         <v>1</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>56</v>
@@ -3014,7 +3009,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F24" s="6">
         <v>7</v>
@@ -3027,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45">
@@ -3047,7 +3042,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -3057,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45">
@@ -3077,22 +3072,22 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45">
       <c r="A27" s="5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>56</v>
@@ -3104,7 +3099,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F27" s="6">
         <v>7</v>
@@ -3117,15 +3112,15 @@
         <v>1</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45">
       <c r="A28" s="5" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -3137,13 +3132,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="I28" s="5" t="b">
         <f>TRUE</f>
@@ -3153,15 +3148,15 @@
         <v>1</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45">
       <c r="A29" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>56</v>
@@ -3173,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F29" s="6">
         <v>7</v>
@@ -3186,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45">
@@ -3206,7 +3201,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -3219,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45">
@@ -3239,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
@@ -3252,15 +3247,15 @@
         <v>1</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>103</v>
+        <v>495</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3272,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3282,15 +3277,15 @@
         <v>3</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3302,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3312,15 +3307,15 @@
         <v>3</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45">
       <c r="A34" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>56</v>
@@ -3332,22 +3327,22 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="5" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3359,58 +3354,58 @@
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="I35" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45">
       <c r="A36" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3422,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3432,15 +3427,15 @@
         <v>3</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
-        <v>113</v>
+        <v>516</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -3452,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
@@ -3462,15 +3457,15 @@
         <v>1</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>515</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -3482,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
@@ -3492,15 +3487,15 @@
         <v>1</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -3512,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
@@ -3522,15 +3517,15 @@
         <v>1</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
-        <v>110</v>
+        <v>513</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -3542,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
@@ -3552,15 +3547,15 @@
         <v>1</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -3572,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
@@ -3582,15 +3577,15 @@
         <v>1</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
-        <v>109</v>
+        <v>511</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -3602,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
@@ -3612,15 +3607,15 @@
         <v>1</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30">
       <c r="A44" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>56</v>
@@ -3632,28 +3627,28 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F44" s="6">
         <v>5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="I44" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30">
       <c r="A45" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>56</v>
@@ -3665,28 +3660,28 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="I45" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>56</v>
@@ -3698,23 +3693,23 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F46" s="6">
         <v>5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="I46" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3731,20 +3726,20 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3761,20 +3756,20 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30">
@@ -3791,20 +3786,20 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30">
@@ -3821,25 +3816,25 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -3851,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F51" s="6">
         <v>7</v>
@@ -3864,27 +3859,27 @@
         <v>1</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="21">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -3894,27 +3889,27 @@
         <v>3</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="21">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -3924,27 +3919,30 @@
         <v>3</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="21">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -3954,27 +3952,27 @@
         <v>3</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>157</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="21">
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -3984,27 +3982,27 @@
         <v>3</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>84</v>
+        <v>491</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="21">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -4014,27 +4012,27 @@
         <v>3</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="21">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -4044,27 +4042,27 @@
         <v>3</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>86</v>
+        <v>492</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="21">
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -4074,27 +4072,27 @@
         <v>3</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="21">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4104,27 +4102,27 @@
         <v>3</v>
       </c>
       <c r="K59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="21">
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4134,81 +4132,81 @@
         <v>3</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30">
       <c r="A61" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D61" s="21">
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30">
       <c r="A62" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D62" s="21">
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>93</v>
+        <v>498</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D63" s="21">
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4218,33 +4216,33 @@
         <v>3</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="45">
       <c r="A64" s="5" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D64" s="21">
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F64" s="6">
         <v>6</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="I64" s="5" t="b">
         <f>TRUE</f>
@@ -4254,30 +4252,30 @@
         <v>3</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>94</v>
+        <v>499</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D65" s="21">
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4287,210 +4285,210 @@
         <v>3</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="45">
       <c r="A66" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D66" s="21">
         <v>5</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I66" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="45">
       <c r="A67" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D67" s="21">
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I67" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="45">
       <c r="A68" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D68" s="21">
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="I68" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30">
       <c r="A69" s="5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D69" s="21">
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="I69" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="45">
       <c r="A70" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D70" s="21">
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="I70" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30">
       <c r="A71" s="5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D71" s="21">
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="I71" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="8" t="s">
-        <v>141</v>
+        <v>500</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D72" s="21">
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="I72" s="5" t="b">
         <f>TRUE</f>
@@ -4500,30 +4498,30 @@
         <v>3</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="8" t="s">
-        <v>140</v>
+        <v>501</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D73" s="21">
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="I73" s="5" t="b">
         <f>TRUE</f>
@@ -4533,1755 +4531,1755 @@
         <v>3</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="45">
       <c r="A74" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D74" s="21">
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="I74" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45">
       <c r="A75" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D75" s="21">
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="I75" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45">
       <c r="A76" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D76" s="21">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I76" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="45">
       <c r="A77" s="5" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D77" s="21">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I77" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="A78" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D78" s="21">
         <v>7</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="I78" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="30">
       <c r="A79" s="5" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D79" s="21">
         <v>7</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="I79" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="30">
       <c r="A80" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D80" s="21">
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="I80" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30">
       <c r="A81" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D81" s="21">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="I81" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30">
       <c r="A82" s="5" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D82" s="21">
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="I82" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="A83" s="5" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D83" s="21">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="I83" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30">
       <c r="A84" s="5" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="I84" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30">
       <c r="A85" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D85" s="21">
         <v>7</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I85" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="45">
       <c r="A86" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D86" s="21">
         <v>7</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I86" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="45">
       <c r="A87" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D87" s="21">
         <v>7</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I87" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="45">
       <c r="A88" s="5" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D88" s="21">
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="I88" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30">
       <c r="A89" s="5" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D89" s="21">
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="I89" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30">
       <c r="A90" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D90" s="21">
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="I90" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30">
       <c r="A91" s="5" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D91" s="21">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="I91" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="45">
       <c r="A92" s="5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D92" s="21">
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="I92" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D93" s="21">
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I93" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="5" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D94" s="21">
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I94" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30">
       <c r="A95" s="5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D95" s="21">
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I95" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="A96" s="5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I96" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="45">
       <c r="A97" s="5" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I97" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="45">
       <c r="A98" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="5" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="I98" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="45">
       <c r="A99" s="5" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="I99" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30">
       <c r="A100" s="5" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I100" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="A101" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="I101" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="45">
       <c r="A102" s="11" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="I102" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="5" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="I103" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30">
       <c r="A104" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I104" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
       <c r="A105" s="5" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I105" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30">
       <c r="A106" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I106" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="45">
       <c r="A107" s="5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="I107" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30">
       <c r="A108" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60">
       <c r="A109" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60">
       <c r="A110" s="1" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45">
       <c r="A111" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45">
       <c r="A112" s="1" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45">
       <c r="A113" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45">
       <c r="A114" s="1" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="60">
       <c r="A115" s="1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45">
       <c r="A116" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30">
       <c r="A117" s="1" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45">
       <c r="A118" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45">
       <c r="A119" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45">
       <c r="A120" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30">
       <c r="A122" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45">
       <c r="A123" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="45">
       <c r="A125" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="45">
       <c r="A126" s="1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="45">
       <c r="A128" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D128" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B128" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>323</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="45">
       <c r="A129" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="15" t="s">
-        <v>328</v>
+        <v>505</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6290,30 +6288,30 @@
         <v>1</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="15" t="s">
-        <v>329</v>
+        <v>506</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6322,30 +6320,30 @@
         <v>1</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="15" t="s">
-        <v>330</v>
+        <v>507</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -6354,30 +6352,30 @@
         <v>1</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="15" t="s">
-        <v>331</v>
+        <v>508</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -6386,1538 +6384,1538 @@
         <v>1</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45">
       <c r="A134" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H134" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="45">
       <c r="A135" s="5" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="45">
       <c r="A136" s="5" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I136" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="45">
       <c r="A137" s="5" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="45">
       <c r="A138" s="5" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I138" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="45">
       <c r="A139" s="5" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I139" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30">
       <c r="A140" s="5" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I140" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45">
       <c r="A141" s="5" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I141" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45">
       <c r="A142" s="5" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45">
       <c r="A143" s="5" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45">
       <c r="A144" s="5" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I144" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="A145" s="5" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I145" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45">
       <c r="A146" s="5" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I146" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45">
       <c r="A147" s="5" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
       <c r="A148" s="5" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="30">
       <c r="A149" s="5" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="I149" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="A150" s="5" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="I150" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="A151" s="5" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="45">
       <c r="A152" s="5" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="45">
       <c r="A153" s="5" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="45">
       <c r="A154" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45">
       <c r="A155" s="5" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45">
       <c r="A156" s="5" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30">
       <c r="A157" s="5" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E157" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H157" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H157" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E158" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H158" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I158" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H159" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H159" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I159" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H160" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H160" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E161" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H161" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H161" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I161" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E162" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H162" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H162" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E163" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H163" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H164" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H165" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H165" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H166" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H167" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E168" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H168" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H168" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I168" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H169" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I170" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L170" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I170" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K170" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L170" s="5" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I171" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L171" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I171" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L171" s="5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E172" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H172" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="A173" s="5" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H173" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30">
       <c r="A175" s="5" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="30">
       <c r="A176" s="5" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30">
       <c r="A177" s="5" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="45">
       <c r="A178" s="5" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="45">
       <c r="A179" s="5" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="5" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="I180" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="I181" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="I182" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K182" s="5" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="L182" s="24" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K185" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30">
       <c r="A186" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="I186" s="5" t="b">
         <v>1</v>
@@ -7926,30 +7924,30 @@
         <v>3</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="30">
       <c r="A187" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="I187" s="5" t="b">
         <v>1</v>
@@ -7958,30 +7956,30 @@
         <v>3</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="30">
       <c r="A188" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>1</v>
@@ -7990,46 +7988,14 @@
         <v>3</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="A189" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="I189" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" s="5">
-        <v>3</v>
-      </c>
-      <c r="K189" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L189" s="5" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E70D93-98C7-47FC-826F-E34879F4A8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52137160-43C6-403C-9B7C-067549A7152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="512">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1505,123 +1505,107 @@
     <t>cenbii-procid-ubl::urn:fdc:www.efaktura.gov.pl:ver2.0:us:ver1.0</t>
   </si>
   <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderChange-2::OrderChange##urn:fdc:peppol.eu:poacc:trns:order_change:3::2.3</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderCancellation-2::OrderCancellation##urn:fdc:peppol.eu:poacc:trns:order_cancellation:3::2.3</t>
-  </si>
-  <si>
-    <t>TICC-219</t>
-  </si>
-  <si>
     <t>TICC-216</t>
   </si>
   <si>
-    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response_advanced:3::2.3</t>
+    <t>Peppol Invoice Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Catalogue transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Catalogue Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Invoice Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Punch Out transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Despatch Advice transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Order Agreement transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol Message Level Response transaction 3.0</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing UBL Invoice V3</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing UBL CreditNote V3</t>
+  </si>
+  <si>
+    <t>Peppol BIS Billing CII Invoice V3</t>
+  </si>
+  <si>
+    <t>SG Peppol BIS Billing 3.0 Invoice</t>
+  </si>
+  <si>
+    <t>SG Peppol BIS Billing 3.0 Credit Note</t>
+  </si>
+  <si>
+    <t>AU-NZ Peppol BIS Billing 3.0 Invoice</t>
+  </si>
+  <si>
+    <t>AU-NZ Peppol BIS Billing 3.0 CreditNote</t>
+  </si>
+  <si>
+    <t>Peppol Tendering Questions V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tendering Answers V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tender Clarification Request V1.0</t>
+  </si>
+  <si>
+    <t>Peppol Tender Clarification Response V1.0</t>
+  </si>
+  <si>
+    <t>Peppol End User Report</t>
+  </si>
+  <si>
+    <t>Peppol Transaction Statistics Report</t>
+  </si>
+  <si>
+    <t>Peppol Tender Submission Tender V1</t>
+  </si>
+  <si>
+    <t>Peppol Tender Submission TenderReceipt V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement document access CallForTenders V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement document access TenderStatusRequest V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement procedure subscription Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Procurement procedure subscription Request V1</t>
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:ordering:3
-cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3
-cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:advanced_ordering:3</t>
-  </si>
-  <si>
-    <t>Peppol Invoice Response V1</t>
-  </si>
-  <si>
-    <t>Peppol Catalogue transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Catalogue Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Order transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Invoice Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Order Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Punch Out transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Despatch Advice transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Order Agreement transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol Message Level Response transaction 3.0</t>
-  </si>
-  <si>
-    <t>Peppol BIS Billing UBL Invoice V3</t>
-  </si>
-  <si>
-    <t>Peppol BIS Billing UBL CreditNote V3</t>
-  </si>
-  <si>
-    <t>Peppol BIS Billing CII Invoice V3</t>
-  </si>
-  <si>
-    <t>SG Peppol BIS Billing 3.0 Invoice</t>
-  </si>
-  <si>
-    <t>SG Peppol BIS Billing 3.0 Credit Note</t>
-  </si>
-  <si>
-    <t>AU-NZ Peppol BIS Billing 3.0 Invoice</t>
-  </si>
-  <si>
-    <t>AU-NZ Peppol BIS Billing 3.0 CreditNote</t>
-  </si>
-  <si>
-    <t>Peppol Order Change</t>
-  </si>
-  <si>
-    <t>Peppol Order Cancellation</t>
-  </si>
-  <si>
-    <t>Peppol Order Response Advanced</t>
-  </si>
-  <si>
-    <t>Peppol Tendering Questions V1.0</t>
-  </si>
-  <si>
-    <t>Peppol Tendering Answers V1.0</t>
-  </si>
-  <si>
-    <t>Peppol Tender Clarification Request V1.0</t>
-  </si>
-  <si>
-    <t>Peppol Tender Clarification Response V1.0</t>
-  </si>
-  <si>
-    <t>Peppol End User Report</t>
-  </si>
-  <si>
-    <t>Peppol Transaction Statistics Report</t>
-  </si>
-  <si>
-    <t>Peppol Tender Submission Tender V1</t>
-  </si>
-  <si>
-    <t>Peppol Tender Submission TenderReceipt V1</t>
-  </si>
-  <si>
-    <t>Peppol Procurement document access CallForTenders V1</t>
-  </si>
-  <si>
-    <t>Peppol Procurement document access TenderStatusRequest V1</t>
-  </si>
-  <si>
-    <t>Peppol Procurement procedure subscription Response V1</t>
-  </si>
-  <si>
-    <t>Peppol Procurement procedure subscription Request V1</t>
+cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:order_only:3</t>
+  </si>
+  <si>
+    <t>SETU Invoice v2.2</t>
+  </si>
+  <si>
+    <t>TICC-217</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0#compliant#urn:fdc:setu.nl:invoice:v2.2::2.1</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2191,7 @@
   <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
@@ -3255,7 +3239,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3285,7 +3269,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3405,7 +3389,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3435,7 +3419,7 @@
     </row>
     <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -3465,7 +3449,7 @@
     </row>
     <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -3495,7 +3479,7 @@
     </row>
     <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -3525,7 +3509,7 @@
     </row>
     <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -3555,7 +3539,7 @@
     </row>
     <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -3585,7 +3569,7 @@
     </row>
     <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -3834,7 +3818,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -3867,7 +3851,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -3897,7 +3881,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -3925,9 +3909,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -3941,9 +3925,6 @@
       <c r="E54" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -3955,12 +3936,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -3990,7 +3971,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4020,7 +4001,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4050,7 +4031,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4080,7 +4061,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4110,7 +4091,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4194,7 +4175,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4260,7 +4241,7 @@
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4473,7 +4454,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4506,7 +4487,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -6264,7 +6245,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
@@ -6296,7 +6277,7 @@
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="15" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -6328,7 +6309,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
@@ -6360,7 +6341,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="15" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -7726,7 +7707,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>56</v>
@@ -7755,7 +7736,7 @@
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
@@ -7886,7 +7867,7 @@
         <v>374</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
@@ -7898,15 +7879,15 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="30">
+    <row r="186" spans="1:12" ht="45">
       <c r="A186" s="5" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D186" s="21" t="s">
         <v>476</v>
@@ -7915,84 +7896,23 @@
         <v>374</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="I186" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>117</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="30">
-      <c r="A187" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D187" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I187" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" s="5">
-        <v>3</v>
-      </c>
-      <c r="K187" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L187" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="30">
-      <c r="A188" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I188" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" s="5">
-        <v>3</v>
-      </c>
-      <c r="K188" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L188" s="5" t="s">
-        <v>482</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="B188" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52137160-43C6-403C-9B7C-067549A7152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5D990-6F17-43AD-9EAE-3E611BB6F667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="515">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1606,6 +1606,15 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:nen.nl:nlcius:v1.0#compliant#urn:fdc:setu.nl:invoice:v2.2::2.1</t>
+  </si>
+  <si>
+    <t>JP PINT invoice</t>
+  </si>
+  <si>
+    <t>TICC-222</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:fdc:peppol:jp:billing:3.0::2.1</t>
   </si>
 </sst>
 </file>
@@ -2191,8 +2200,8 @@
   <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7909,7 +7918,37 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="B187" s="4"/>
+      <c r="A187" t="s">
+        <v>512</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I187" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J187" s="5">
+        <v>3</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="188" spans="1:12">
       <c r="B188" s="4"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5D990-6F17-43AD-9EAE-3E611BB6F667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332F360-767C-45BF-9F07-B0BB059D0EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$187</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -2197,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7950,11 +7950,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
-      <c r="B188" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L188" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
